--- a/AmbosGrupos_SE/AsociadorLineal.xlsx
+++ b/AmbosGrupos_SE/AsociadorLineal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuatedu-my.sharepoint.com/personal/ahgarcia_docentes_uat_edu_mx/Documents/5_ArchivosCompartidos/SE_2021_1/Evidencia_Unidad_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\AmbosGrupos_SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{5EC5F211-015F-47FA-9373-C2AE398E562D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DBB22E67-FF12-489F-ACBE-75C2079652BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D99575-A5B3-4A7A-92A5-8EB3E60B63C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -85,12 +85,6 @@
     <t>CODIFICACION DE LAS CLASES</t>
   </si>
   <si>
-    <t>ENTRADAS</t>
-  </si>
-  <si>
-    <t>SALIDAS</t>
-  </si>
-  <si>
     <t>Bueno</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>Fernanda</t>
   </si>
   <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Grisel</t>
-  </si>
-  <si>
     <t>Malo</t>
   </si>
   <si>
@@ -131,6 +119,39 @@
   </si>
   <si>
     <t>prueba</t>
+  </si>
+  <si>
+    <t>Zubiri</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Baez</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Milca</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>ENTRADAS (X)</t>
+  </si>
+  <si>
+    <t>SALIDAS (Y)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,7 +557,7 @@
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -563,7 +584,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -587,7 +608,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -611,7 +632,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -635,7 +656,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -659,7 +680,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -681,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -701,7 +722,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -737,7 +758,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -769,13 +790,13 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -796,8 +817,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -811,24 +832,21 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <f>AVERAGE(B2:E2)</f>
-        <v>6.75</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -842,10 +860,7 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F10" si="0">AVERAGE(B3:E3)</f>
-        <v>5</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" t="s">
         <v>7</v>
       </c>
@@ -864,8 +879,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
+      <c r="A4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -879,10 +894,7 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
@@ -901,8 +913,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
+      <c r="A5" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -916,10 +928,7 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="A6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -953,27 +962,15 @@
       <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
+      <c r="A7" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -987,18 +984,15 @@
       <c r="E7">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
+      <c r="A8" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1012,18 +1006,15 @@
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>9.75</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
+      <c r="A9" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -1037,21 +1028,18 @@
       <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
+      <c r="A10" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -1065,18 +1053,15 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1085,7 +1070,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1095,47 +1080,48 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>25</v>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
